--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3161824.345825522</v>
+        <v>3163584.876128306</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>225.4031397636151</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>109.3170492634406</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.15833129523586</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>225.2599980394038</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>221.7640356181999</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>212.5689651179052</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>212.5689651179051</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.1845637256568</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>47.41706335192139</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>155.5829331754613</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,7 +1150,7 @@
         <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>163.4678367682641</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>211.4815387487023</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>91.06264775161269</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.24979976115242</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256402</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932179952</v>
+        <v>50.34571932180017</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>273.2210290410305</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>180.1003471321691</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701343</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.85274231757755</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695473</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.87604574171</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>64.36993339924408</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>788.4778634388466</v>
+      </c>
+      <c r="C2" t="n">
         <v>522.1002068716687</v>
-      </c>
-      <c r="C2" t="n">
-        <v>255.7225503044907</v>
       </c>
       <c r="D2" t="n">
         <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>248.7770495552872</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4330,16 +4330,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4375,7 +4375,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.5183722823837</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>665.2575285631253</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>516.3231189018741</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>357.0856638964186</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>210.5511059233035</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4412,22 +4412,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4439,22 +4439,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528705</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473376</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.5183722823837</v>
+        <v>839.7105578442523</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.1499327403632</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C4" t="n">
-        <v>171.2137498124562</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>827.3201684510713</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W4" t="n">
-        <v>560.9425118838933</v>
+        <v>576.1669554181176</v>
       </c>
       <c r="X4" t="n">
-        <v>560.9425118838933</v>
+        <v>576.1669554181176</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.1499327403632</v>
+        <v>355.3743762745875</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044908</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276843</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276843</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276843</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716689</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.0630263227563</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="W7" t="n">
-        <v>897.7010420510134</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="X7" t="n">
-        <v>669.711491152996</v>
+        <v>698.0734409426904</v>
       </c>
       <c r="Y7" t="n">
-        <v>669.711491152996</v>
+        <v>698.0734409426904</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.879446109798</v>
+        <v>1751.998473148449</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>1383.035956208037</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626362</v>
+        <v>1024.770257601287</v>
       </c>
       <c r="E8" t="n">
-        <v>473.862977964392</v>
+        <v>638.9820050030426</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478439</v>
+        <v>227.996100213435</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2112552068556</v>
+        <v>216.3302822455062</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467167</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607419</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045913</v>
+        <v>795.186282904592</v>
       </c>
       <c r="M8" t="n">
         <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550196</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661161</v>
+        <v>2540.564622661162</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.56276034278</v>
+        <v>2435.830015762134</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.56276034278</v>
+        <v>2435.830015762134</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.56276034278</v>
+        <v>2435.830015762134</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.56276034278</v>
+        <v>2104.767128418563</v>
       </c>
       <c r="W8" t="n">
-        <v>2346.945044435</v>
+        <v>1751.998473148449</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.47928617392</v>
+        <v>1751.998473148449</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.47928617392</v>
+        <v>1751.998473148449</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010759</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199489</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818586976</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532421</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801271</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763153</v>
       </c>
       <c r="H9" t="n">
         <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637185</v>
+        <v>113.4887579637186</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572703</v>
+        <v>559.9063389572705</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907513</v>
+        <v>854.4423223907515</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865052</v>
+        <v>1217.508790865053</v>
       </c>
       <c r="N9" t="n">
         <v>1604.593193337621</v>
@@ -4901,34 +4901,34 @@
         <v>1936.48000332501</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789035</v>
+        <v>2445.345361789036</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251697</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685345</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751575</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519832</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791631</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586098</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821144</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686134</v>
+        <v>715.921380568614</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407065</v>
+        <v>546.9851976407072</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283707</v>
+        <v>396.8685582283714</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459776</v>
+        <v>248.9554646459783</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480672</v>
+        <v>102.0655171480679</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380132</v>
+        <v>76.63468308380138</v>
       </c>
       <c r="K10" t="n">
         <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368916</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904029</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
         <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
         <v>1346.351975440401</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542383</v>
+        <v>1118.362424542384</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988531</v>
+        <v>897.5698453988538</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1157.720528233637</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="14">
@@ -5269,25 +5269,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,13 +5542,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5588,13 +5588,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5603,10 +5603,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5670,16 +5670,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,16 +5779,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,13 +6016,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123002</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6490,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6651,22 +6651,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1166.195182806534</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6706,46 +6706,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,13 +7168,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7426,13 +7426,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7490,7 +7490,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
         <v>577.3880777468471</v>
@@ -7499,10 +7499,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7548,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797186</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7642,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,31 +7669,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5477693179085</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>762.5477693179085</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>614.6346757355154</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>467.744728237605</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>300.548628952485</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>158.8367977946831</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399594291</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094965</v>
+        <v>264.4747475094964</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348518</v>
+        <v>20.98618304348516</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>13.30196929556047</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>106.084127257075</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405078</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>112.9792378643597</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>16.89590291932146</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739158</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="12">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
@@ -26331,28 +26331,28 @@
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658078</v>
+        <v>390680.0076580785</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060694</v>
+        <v>507909.2320606938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.578120375819352e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101743</v>
+        <v>95270.23779101753</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.567042389</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.567042389</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716748</v>
+        <v>135650.8557716747</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744366</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744324</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744322</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744319</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744322</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744333</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744311</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744324</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>8727.256391744344</v>
       </c>
-      <c r="N4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="O4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744371</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744329</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756789</v>
+        <v>92902.86757567893</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272372.8022066003</v>
+        <v>-272372.8022066004</v>
       </c>
       <c r="C6" t="n">
-        <v>407715.1783845926</v>
+        <v>407715.1783845925</v>
       </c>
       <c r="D6" t="n">
-        <v>99177.81762581629</v>
+        <v>99177.81762581611</v>
       </c>
       <c r="E6" t="n">
-        <v>88146.87719805325</v>
+        <v>88459.51852697429</v>
       </c>
       <c r="F6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="G6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876686</v>
       </c>
       <c r="H6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876682</v>
       </c>
       <c r="I6" t="n">
-        <v>596056.1092587471</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="J6" t="n">
-        <v>527056.9548396332</v>
+        <v>527369.5961685538</v>
       </c>
       <c r="K6" t="n">
-        <v>596056.1092587474</v>
+        <v>596368.7505876682</v>
       </c>
       <c r="L6" t="n">
-        <v>500785.8714677299</v>
+        <v>501098.5127966507</v>
       </c>
       <c r="M6" t="n">
-        <v>463338.133563278</v>
+        <v>463650.7748921995</v>
       </c>
       <c r="N6" t="n">
-        <v>596056.1092587471</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="O6" t="n">
-        <v>596056.1092587473</v>
+        <v>596368.7505876682</v>
       </c>
       <c r="P6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876684</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.22265046977419e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.355318631470837e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.943490198055512e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627821</v>
+        <v>933.7024595627823</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085695</v>
+        <v>640.1406900856953</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.22265046977419e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933037</v>
+        <v>319.6474457933041</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788916</v>
+        <v>434.2730407788914</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.22265046977419e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841888</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>187.4310348820949</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>63.39144972487516</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>91.86438829118759</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>26.87764528442423</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>64.7589627183911</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531024</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>173.6689735381485</v>
       </c>
     </row>
     <row r="6">
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778207</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>132.4149168300159</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>130.9400651611297</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>137.5656374520364</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>65.76608425465045</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27912,13 +27912,13 @@
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>137.7594299687107</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164532394</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164533716</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899067</v>
+        <v>115.961534289906</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.648064949407792e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28866,10 +28866,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.116558203184479e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30459,10 +30459,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.943490198055512e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.943490198055512e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30471,13 +30471,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.456737265169937e-12</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.943490198055512e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.943490198055512e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,13 +30510,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.943490198055512e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.943490198055512e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.943490198055512e-14</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885554</v>
       </c>
       <c r="H8" t="n">
         <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972531</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763186</v>
+        <v>477.4691627763187</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354926</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359934</v>
+        <v>659.0954050359935</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525071</v>
+        <v>669.7602577525072</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307888</v>
+        <v>632.4356192307889</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983016</v>
+        <v>539.7691690983017</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542127</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864749</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140464</v>
+        <v>85.53465245140465</v>
       </c>
       <c r="T8" t="n">
         <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436928</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026266</v>
       </c>
       <c r="J9" t="n">
         <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502166</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571277</v>
+        <v>436.0654741571278</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617162</v>
+        <v>508.8678404617163</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152209</v>
+        <v>522.3360580152211</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451908</v>
+        <v>477.8354464519081</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947587</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366397</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133929</v>
+        <v>8.095024154133931</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419032</v>
@@ -31676,19 +31676,19 @@
         <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415875</v>
+        <v>50.63422518415877</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
         <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490122</v>
       </c>
       <c r="M10" t="n">
         <v>263.9316641023123</v>
@@ -31697,7 +31697,7 @@
         <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046253</v>
       </c>
       <c r="P10" t="n">
         <v>203.6389757708729</v>
@@ -31706,16 +31706,16 @@
         <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307408</v>
+        <v>75.70643221307409</v>
       </c>
       <c r="S10" t="n">
         <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942745</v>
+        <v>7.194100917942746</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650326</v>
+        <v>0.09183958618650327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>217.43861174566</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705668</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313381</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655054</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087207</v>
+        <v>428.7491718087208</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559162</v>
+        <v>440.3471941559163</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809102</v>
+        <v>402.3374078091022</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430321</v>
+        <v>308.5361733430322</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797632</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234272</v>
+        <v>20.20013907234278</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127568</v>
+        <v>62.90656844127574</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884361</v>
+        <v>450.9268494884362</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772535</v>
+        <v>297.5110943772536</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396979</v>
+        <v>366.733806539698</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318877</v>
+        <v>390.9943459318878</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074636</v>
       </c>
       <c r="P9" t="n">
         <v>514.0054125899248</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873305</v>
+        <v>25.68023017873308</v>
       </c>
       <c r="K10" t="n">
         <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641529</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
         <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228576</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
